--- a/documentation/code-teensy-vcu.xlsx
+++ b/documentation/code-teensy-vcu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitKraken\VCU-Valkyriz\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7422C044-279A-41DA-BD3C-7953FADA0352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48EF16-9860-4041-B243-8D9C45FECAE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C68DB42-6FB7-402E-9806-14FA3E40D0DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variables Bamocar-VCU" sheetId="1" r:id="rId1"/>
+    <sheet name="VCU-Bamocar" sheetId="1" r:id="rId1"/>
+    <sheet name="VCU-Datalogger" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -438,7 +439,7 @@
   <dimension ref="A3:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,4 +528,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D71AE4-FC7E-4D9C-B8B7-736EDB104405}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/code-teensy-vcu.xlsx
+++ b/documentation/code-teensy-vcu.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitKraken\VCU-Valkyriz\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48EF16-9860-4041-B243-8D9C45FECAE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633238FF-8A32-46C7-B803-BCDF7E77037F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C68DB42-6FB7-402E-9806-14FA3E40D0DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="VCU-Bamocar" sheetId="1" r:id="rId1"/>
-    <sheet name="VCU-Datalogger" sheetId="2" r:id="rId2"/>
+    <sheet name="VCU-Bamocar-CAN" sheetId="1" r:id="rId1"/>
+    <sheet name="VCU-Datalogger-CAN" sheetId="2" r:id="rId2"/>
+    <sheet name="VCU-BMS-CAN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -540,4 +541,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A41607F-C1ED-4F7D-A733-71BC36015CA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>